--- a/data/Piezo_2023.xlsx
+++ b/data/Piezo_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/sebastian_echeverria_irta_cat/Documents/R/Gasera_results_CERESTRES/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECHEVERRIA\R_git\Thesis_Gasera\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{A18EFA09-3F04-45E7-B8CB-D7033957ABAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41AE7791-9ED1-48A5-877D-34F756BCFF1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1F921-2106-4AB7-AAEB-5C7CF0D508F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7950" windowWidth="29040" windowHeight="15840" xr2:uid="{380D2194-D0B5-420F-82BC-32BA371E097C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{380D2194-D0B5-420F-82BC-32BA371E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="78">
   <si>
     <t>AWD</t>
   </si>
@@ -376,14 +376,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +417,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658B7A73-235B-49DD-96BB-A099C551B6D2}">
-  <dimension ref="A1:K1099"/>
+  <dimension ref="A1:K1174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1080" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1096" sqref="H1096"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26225,7 +26221,7 @@
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1022" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1022" s="2" t="s">
         <v>60</v>
@@ -26245,7 +26241,7 @@
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1023" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1023" s="2" t="s">
         <v>61</v>
@@ -26265,7 +26261,7 @@
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1024" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1024" s="2" t="s">
         <v>62</v>
@@ -26285,7 +26281,7 @@
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1025" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1025" s="2" t="s">
         <v>63</v>
@@ -26305,7 +26301,7 @@
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1026" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1026" s="2" t="s">
         <v>64</v>
@@ -26325,7 +26321,7 @@
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1027" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1027" s="2" t="s">
         <v>65</v>
@@ -26345,7 +26341,7 @@
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1028" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1028" s="2" t="s">
         <v>66</v>
@@ -26365,7 +26361,7 @@
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1029" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1029" s="2" t="s">
         <v>67</v>
@@ -26385,7 +26381,7 @@
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1030" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1030" s="2" t="s">
         <v>68</v>
@@ -26405,7 +26401,7 @@
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1031" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1031" s="2" t="s">
         <v>69</v>
@@ -26425,7 +26421,7 @@
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1032" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1032" s="2" t="s">
         <v>70</v>
@@ -26445,7 +26441,7 @@
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1033" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1033" s="2" t="s">
         <v>71</v>
@@ -26465,7 +26461,7 @@
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1034" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1034" s="2" t="s">
         <v>72</v>
@@ -26485,7 +26481,7 @@
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1035" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1035" s="2" t="s">
         <v>73</v>
@@ -26505,7 +26501,7 @@
     </row>
     <row r="1036" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1036" s="10">
-        <v>45272</v>
+        <v>45239</v>
       </c>
       <c r="B1036" s="2" t="s">
         <v>74</v>
@@ -26524,193 +26520,1693 @@
       </c>
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G1037" s="2"/>
+      <c r="A1037" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1037" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1037" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1037" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G1038" s="2"/>
+      <c r="A1038" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1038" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1038" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1038" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G1039" s="2"/>
+      <c r="A1039" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1039" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1039" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1039" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G1040" s="2"/>
-    </row>
-    <row r="1041" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1041" s="2"/>
-    </row>
-    <row r="1042" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1042" s="2"/>
-    </row>
-    <row r="1043" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1043" s="2"/>
-    </row>
-    <row r="1044" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1044" s="2"/>
-    </row>
-    <row r="1045" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1045" s="2"/>
-    </row>
-    <row r="1046" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1046" s="2"/>
-    </row>
-    <row r="1047" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1047" s="2"/>
-    </row>
-    <row r="1048" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1048" s="2"/>
-    </row>
-    <row r="1049" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1049" s="2"/>
-    </row>
-    <row r="1050" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1050" s="2"/>
-    </row>
-    <row r="1051" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1051" s="2"/>
-    </row>
-    <row r="1052" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1052" s="2"/>
-    </row>
-    <row r="1053" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1053" s="2"/>
-    </row>
-    <row r="1054" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1054" s="2"/>
-    </row>
-    <row r="1055" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1055" s="2"/>
-    </row>
-    <row r="1056" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1056" s="2"/>
-    </row>
-    <row r="1057" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1057" s="2"/>
-    </row>
-    <row r="1058" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1058" s="2"/>
-    </row>
-    <row r="1059" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1059" s="2"/>
-    </row>
-    <row r="1060" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1060" s="2"/>
-    </row>
-    <row r="1061" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1061" s="2"/>
-    </row>
-    <row r="1062" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1062" s="2"/>
-    </row>
-    <row r="1063" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1063" s="2"/>
-    </row>
-    <row r="1064" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1064" s="2"/>
-    </row>
-    <row r="1065" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1065" s="2"/>
-    </row>
-    <row r="1066" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1066" s="2"/>
-    </row>
-    <row r="1067" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1067" s="2"/>
-    </row>
-    <row r="1068" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1068" s="2"/>
-    </row>
-    <row r="1069" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1069" s="2"/>
-    </row>
-    <row r="1070" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1070" s="2"/>
-    </row>
-    <row r="1071" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1071" s="2"/>
-    </row>
-    <row r="1072" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1072" s="2"/>
-    </row>
-    <row r="1073" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1073" s="2"/>
-    </row>
-    <row r="1074" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1074" s="2"/>
-    </row>
-    <row r="1075" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1075" s="2"/>
-    </row>
-    <row r="1076" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1076" s="2"/>
-    </row>
-    <row r="1077" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1077" s="2"/>
-    </row>
-    <row r="1078" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1078" s="2"/>
-    </row>
-    <row r="1079" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1079" s="2"/>
-    </row>
-    <row r="1080" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1080" s="2"/>
-    </row>
-    <row r="1081" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1081" s="2"/>
-    </row>
-    <row r="1082" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1082" s="2"/>
-    </row>
-    <row r="1083" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1083" s="2"/>
-    </row>
-    <row r="1084" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1084" s="2"/>
-    </row>
-    <row r="1085" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1085" s="2"/>
-    </row>
-    <row r="1086" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1086" s="2"/>
-    </row>
-    <row r="1087" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1087" s="2"/>
-    </row>
-    <row r="1088" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1088" s="2"/>
-    </row>
-    <row r="1089" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1089" s="2"/>
-    </row>
-    <row r="1090" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1090" s="2"/>
-    </row>
-    <row r="1091" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1091" s="2"/>
-    </row>
-    <row r="1092" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1092" s="2"/>
-    </row>
-    <row r="1093" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1093" s="2"/>
-    </row>
-    <row r="1094" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1094" s="2"/>
-    </row>
-    <row r="1095" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1095" s="2"/>
-    </row>
-    <row r="1096" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1096" s="2"/>
-    </row>
-    <row r="1097" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1097" s="2"/>
-    </row>
-    <row r="1098" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1098" s="2"/>
-    </row>
-    <row r="1099" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1099" s="2"/>
+      <c r="A1040" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1040" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1040" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1040" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1041" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1041" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1041" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1041" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1042" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1042" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1042" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1042" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1043" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1043" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1043" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1043" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1044" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1044" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1044" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1044" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1045" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1045" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1045" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1045" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1046" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1046" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1046" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1046" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1047" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1047" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1047" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1047" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1048" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1048" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1048" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1048" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1049" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1049" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1049" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1049" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1050" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1050" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1050" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1050" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1051" s="10">
+        <v>45245</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1051" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1051" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1052" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1052" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1052" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1052" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1053" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1053" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1053" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1053" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1054" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1054" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1054" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1054" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1055" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1055" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1055" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1055" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1056" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1056" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1056" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1056" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1057" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1057" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1057" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1057" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1058" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1058" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1058" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1058" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1059" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1059" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1059" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1059" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1060" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1060" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1060" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1060" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1061" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1061" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1061" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1061" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1062" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1062" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1062" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1062" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1063" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1063" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1063" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1063" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1064" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1064" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1064" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1064" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1065" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1065" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1065" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1065" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1066" s="10">
+        <v>45253</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1066" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1066" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1066" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1067" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1067" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1067" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1067" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1068" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1068" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1068" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1068" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1069" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1069" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1069" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1069" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1069" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1070" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1070" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1070" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1070" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1070" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1070" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1071" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1071" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1071" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1071" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1071" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1071" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1072" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1072" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1072" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1072" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1072" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1073" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1073" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1073" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1073" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1073" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1073" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1074" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1074" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1074" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1074" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1074" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1074" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1075" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1075" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1075" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1075" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1075" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1075" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1076" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1076" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1076" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1076" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1076" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1077" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1077" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1077" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1077" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1077" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1078" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1078" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1078" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1078" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1078" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1078" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1079" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1079" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1079" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1079" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1079" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1079" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1080" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1080" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1080" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1080" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1080" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1081" s="10">
+        <v>45260</v>
+      </c>
+      <c r="B1081" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1081" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1081" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1081" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1082" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1082" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1082" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1082" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1082" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1083" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1083" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1083" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1083" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1083" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1083" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1084" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1084" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1084" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1084" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1084" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1085" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1085" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1085" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1085" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1085" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1086" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1086" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1086" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1086" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1086" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1087" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1087" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1087" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1087" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1087" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1087" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1088" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1088" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1088" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1088" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1088" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1088" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1089" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1089" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1089" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1089" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1089" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1090" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1090" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1090" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1090" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1090" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1091" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1091" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1091" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1091" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1091" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1092" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1092" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1092" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1092" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1092" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1092" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1093" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1093" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1093" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1093" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1093" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1093" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1094" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1094" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1094" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1094" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1094" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1094" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1095" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1095" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1095" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1095" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1095" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1095" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1096" s="10">
+        <v>45265</v>
+      </c>
+      <c r="B1096" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1096" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1096" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1096" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1097" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1097" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1097" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1097" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1098" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1098" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1098" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1098" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1098" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1099" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1099" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1099" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1099" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1099" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1100" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1100" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1101" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1101" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1101" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1102" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1102" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1102" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1102" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1102" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1103" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1103" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1103" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1103" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1104" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1104" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1104" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1104" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1104" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1105" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1105" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1105" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1105" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1106" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1106" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1106" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1106" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1107" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1107" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1107" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1108" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1108" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1108" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1108" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1109" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1109" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1109" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1109" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1110" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1110" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1110" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1110" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1111" s="10">
+        <v>45272</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1111" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1111" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1111" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1112" s="2"/>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1113" s="2"/>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1114" s="2"/>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1115" s="2"/>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1116" s="2"/>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1117" s="2"/>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1118" s="2"/>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1119" s="2"/>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1120" s="2"/>
+    </row>
+    <row r="1121" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1121" s="2"/>
+    </row>
+    <row r="1122" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1122" s="2"/>
+    </row>
+    <row r="1123" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1123" s="2"/>
+    </row>
+    <row r="1124" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1124" s="2"/>
+    </row>
+    <row r="1125" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1125" s="2"/>
+    </row>
+    <row r="1126" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1126" s="2"/>
+    </row>
+    <row r="1127" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1127" s="2"/>
+    </row>
+    <row r="1128" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1128" s="2"/>
+    </row>
+    <row r="1129" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1129" s="2"/>
+    </row>
+    <row r="1130" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1130" s="2"/>
+    </row>
+    <row r="1131" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1131" s="2"/>
+    </row>
+    <row r="1132" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1132" s="2"/>
+    </row>
+    <row r="1133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1133" s="2"/>
+    </row>
+    <row r="1134" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1134" s="2"/>
+    </row>
+    <row r="1135" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1135" s="2"/>
+    </row>
+    <row r="1136" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1136" s="2"/>
+    </row>
+    <row r="1137" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1137" s="2"/>
+    </row>
+    <row r="1138" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1138" s="2"/>
+    </row>
+    <row r="1139" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1139" s="2"/>
+    </row>
+    <row r="1140" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1140" s="2"/>
+    </row>
+    <row r="1141" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1141" s="2"/>
+    </row>
+    <row r="1142" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1142" s="2"/>
+    </row>
+    <row r="1143" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1143" s="2"/>
+    </row>
+    <row r="1144" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1144" s="2"/>
+    </row>
+    <row r="1145" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1145" s="2"/>
+    </row>
+    <row r="1146" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1146" s="2"/>
+    </row>
+    <row r="1147" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1147" s="2"/>
+    </row>
+    <row r="1148" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1148" s="2"/>
+    </row>
+    <row r="1149" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1149" s="2"/>
+    </row>
+    <row r="1150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1150" s="2"/>
+    </row>
+    <row r="1151" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1151" s="2"/>
+    </row>
+    <row r="1152" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1152" s="2"/>
+    </row>
+    <row r="1153" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1153" s="2"/>
+    </row>
+    <row r="1154" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1154" s="2"/>
+    </row>
+    <row r="1155" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1155" s="2"/>
+    </row>
+    <row r="1156" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1156" s="2"/>
+    </row>
+    <row r="1157" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1157" s="2"/>
+    </row>
+    <row r="1158" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1158" s="2"/>
+    </row>
+    <row r="1159" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1159" s="2"/>
+    </row>
+    <row r="1160" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1160" s="2"/>
+    </row>
+    <row r="1161" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1161" s="2"/>
+    </row>
+    <row r="1162" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1162" s="2"/>
+    </row>
+    <row r="1163" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1163" s="2"/>
+    </row>
+    <row r="1164" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1164" s="2"/>
+    </row>
+    <row r="1165" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1165" s="2"/>
+    </row>
+    <row r="1166" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1166" s="2"/>
+    </row>
+    <row r="1167" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1167" s="2"/>
+    </row>
+    <row r="1168" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1168" s="2"/>
+    </row>
+    <row r="1169" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1169" s="2"/>
+    </row>
+    <row r="1170" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1170" s="2"/>
+    </row>
+    <row r="1171" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1171" s="2"/>
+    </row>
+    <row r="1172" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1172" s="2"/>
+    </row>
+    <row r="1173" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1173" s="2"/>
+    </row>
+    <row r="1174" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1174" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
